--- a/Personal.xlsx
+++ b/Personal.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alahmadizadeh\Desktop\Time-Managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C341905-9C9E-46B6-8692-96E14D8AC144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDC57A2-DBC6-4691-90BA-06158C92D1C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="3735" windowWidth="15300" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Anki Add on" sheetId="1" r:id="rId1"/>
-    <sheet name="You Tube Channel" sheetId="2" r:id="rId2"/>
+    <sheet name="diamond c14" sheetId="3" r:id="rId1"/>
+    <sheet name="Anki Add on" sheetId="1" r:id="rId2"/>
+    <sheet name="You Tube Channel" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>design</t>
   </si>
@@ -71,6 +72,15 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>https://scienceforsustainability.org/wiki/Nuclear_diamond_batteries</t>
+  </si>
+  <si>
+    <t>https://www.forbes.com/sites/jamesconca/2016/12/09/radioactive-diamond-batteries-making-good-use-of-nuclear-waste/#2ac32686a044</t>
+  </si>
+  <si>
+    <t>https://www.digitaltrends.com/mobile/nuclear-waste-smartphones-nano-diamond-batteries-explained/</t>
   </si>
 </sst>
 </file>
@@ -422,10 +432,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FCACE0-997B-4CFB-86E8-CA74EF22A2ED}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -463,7 +506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802ED764-13B0-4078-9378-CB80EA721CC5}">
   <dimension ref="A1:B12"/>
   <sheetViews>
